--- a/PM-Sheets/PM-Sheet_BAUX(6).xlsx
+++ b/PM-Sheets/PM-Sheet_BAUX(6).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armin\Desktop\project-proposal-baux\PM-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB78045-EF78-4CC3-936D-80B1D6B1C894}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B205C8-9AB9-456D-82FE-B52B9DB0C1FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Planung</t>
   </si>
@@ -85,33 +85,6 @@
   </si>
   <si>
     <t>Remain</t>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
-    <t>Hamzic</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>Hamzic, Djukic, Taha</t>
-  </si>
-  <si>
-    <t>3 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamzic </t>
-  </si>
-  <si>
-    <t>Create a Register Area for the Android App</t>
-  </si>
-  <si>
-    <t>Create a Login Area for the Android app</t>
-  </si>
-  <si>
-    <t>Work on the design of the Android App</t>
   </si>
   <si>
     <t>PM-Sheet (6)</t>
@@ -871,7 +844,7 @@
   <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -887,7 +860,7 @@
   <sheetData>
     <row r="1" spans="2:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -995,81 +968,38 @@
     </row>
     <row r="12" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
+      <c r="C12"/>
+      <c r="D12" s="3"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="I12"/>
     </row>
     <row r="13" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
+      <c r="C13"/>
+      <c r="D13" s="3"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
     </row>
     <row r="14" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
+      <c r="C14"/>
+      <c r="D14" s="3"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
     </row>
     <row r="15" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
